--- a/문서/통합 문서1.xlsx
+++ b/문서/통합 문서1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>1주차</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -202,10 +202,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>통계</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>전일주</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -227,6 +223,14 @@
   </si>
   <si>
     <t>디자인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 상태 설정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>첨부파일</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -315,9 +319,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -333,12 +334,43 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -613,10 +645,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A5:N36"/>
+  <dimension ref="A5:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U26" sqref="U26"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -651,273 +683,285 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="6" t="s">
         <v>27</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="5"/>
+      <c r="G6" s="5"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
+      <c r="A7" s="6"/>
       <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
+      <c r="A8" s="6"/>
       <c r="B8" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
+      <c r="A9" s="6"/>
       <c r="B9" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="6" t="s">
         <v>26</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="3"/>
+      <c r="E10" s="2"/>
       <c r="M10" t="s">
-        <v>45</v>
-      </c>
-      <c r="N10" s="6"/>
+        <v>44</v>
+      </c>
+      <c r="N10" s="5"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
+      <c r="A11" s="6"/>
       <c r="B11" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="2"/>
+      <c r="E11" s="1"/>
       <c r="M11" t="s">
-        <v>46</v>
-      </c>
-      <c r="N11" s="3"/>
+        <v>45</v>
+      </c>
+      <c r="N11" s="2"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
+      <c r="A12" s="6"/>
       <c r="B12" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="2"/>
+      <c r="E12" s="1"/>
       <c r="M12" t="s">
-        <v>47</v>
-      </c>
-      <c r="N12" s="2"/>
+        <v>46</v>
+      </c>
+      <c r="N12" s="3"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
+      <c r="A13" s="6"/>
       <c r="B13" t="s">
         <v>15</v>
       </c>
-      <c r="I13" s="6"/>
+      <c r="I13" s="5"/>
       <c r="M13" t="s">
-        <v>48</v>
-      </c>
-      <c r="N13" s="4"/>
+        <v>47</v>
+      </c>
+      <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
+      <c r="A14" s="6"/>
       <c r="B14" t="s">
         <v>16</v>
       </c>
-      <c r="F14" s="2"/>
+      <c r="F14" s="1"/>
       <c r="M14" t="s">
-        <v>49</v>
-      </c>
-      <c r="N14" s="5"/>
+        <v>48</v>
+      </c>
+      <c r="N14" s="4"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="3"/>
-      <c r="G15" s="2"/>
+      <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
+      <c r="A16" s="6"/>
       <c r="B16" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="2"/>
+      <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
+      <c r="A17" s="6"/>
       <c r="B17" t="s">
         <v>19</v>
       </c>
-      <c r="H17" s="2"/>
+      <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
+      <c r="A18" s="6"/>
       <c r="B18" t="s">
         <v>20</v>
       </c>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
+      <c r="A19" s="6"/>
       <c r="B19" t="s">
         <v>21</v>
       </c>
-      <c r="I19" s="2"/>
+      <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B20" t="s">
         <v>22</v>
       </c>
+      <c r="E20" s="5"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
+      <c r="A21" s="6"/>
       <c r="B21" t="s">
         <v>23</v>
       </c>
+      <c r="E21" s="5"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="6"/>
+      <c r="B22" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22" s="5"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="6"/>
+      <c r="B23" t="s">
+        <v>51</v>
+      </c>
+      <c r="F23" s="5"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B24" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="3"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="B23" t="s">
+      <c r="E24" s="2"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="6"/>
+      <c r="B25" t="s">
         <v>30</v>
       </c>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
-      <c r="B24" t="s">
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="6"/>
+      <c r="B26" t="s">
         <v>31</v>
       </c>
-      <c r="F24" s="4"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" t="s">
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="6"/>
+      <c r="B27" t="s">
         <v>32</v>
       </c>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" t="s">
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="6"/>
+      <c r="B28" t="s">
         <v>33</v>
       </c>
-      <c r="H26" s="4"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" t="s">
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="6"/>
+      <c r="B29" t="s">
         <v>34</v>
       </c>
-      <c r="I27" s="4"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
+      <c r="H29" s="3"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B30" t="s">
         <v>39</v>
       </c>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
-      <c r="B29" t="s">
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="6"/>
+      <c r="B31" t="s">
         <v>40</v>
       </c>
-      <c r="H29" s="6"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" t="s">
+      <c r="H31" s="5"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="6"/>
+      <c r="B32" t="s">
         <v>41</v>
       </c>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" t="s">
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="6"/>
+      <c r="B33" t="s">
         <v>42</v>
       </c>
-      <c r="I31" s="6"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" t="s">
+      <c r="I33" s="5"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="6"/>
+      <c r="B34" t="s">
         <v>43</v>
       </c>
-      <c r="I32" s="6"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="1"/>
-      <c r="B33" t="s">
-        <v>44</v>
-      </c>
-      <c r="J33" s="6"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
+      <c r="I34" s="5"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="6"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B34" t="s">
-        <v>50</v>
-      </c>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-      <c r="B35" t="s">
+      <c r="B36" t="s">
+        <v>49</v>
+      </c>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="6"/>
+      <c r="B37" t="s">
         <v>36</v>
       </c>
-      <c r="J35" s="5"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
-      <c r="B36" t="s">
+      <c r="J37" s="4"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="6"/>
+      <c r="B38" t="s">
         <v>37</v>
       </c>
-      <c r="J36" s="5"/>
+      <c r="J38" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A36:A38"/>
     <mergeCell ref="A6:A9"/>
     <mergeCell ref="A10:A14"/>
     <mergeCell ref="A15:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A28:A33"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A30:A35"/>
+    <mergeCell ref="A24:A29"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/문서/통합 문서1.xlsx
+++ b/문서/통합 문서1.xlsx
@@ -648,7 +648,7 @@
   <dimension ref="A5:N38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T10" sqref="T10"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
